--- a/shadows.xlsx
+++ b/shadows.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Game\TF2\MvM\Potato.tf\Mission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76F4AD00-3483-4800-8F90-24EA833FD968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9755A166-AE73-456B-92A3-1C6E3C16A58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8B656D4C-28D7-4676-8549-790D61228558}"/>
   </bookViews>
@@ -418,7 +418,7 @@
   <dimension ref="B2:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -456,7 +456,7 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
